--- a/data-raw/macroeconomic/year2020_AEO 2020 suptab_23.xlsx
+++ b/data-raw/macroeconomic/year2020_AEO 2020 suptab_23.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PellettC\Documents\Rpackages\sc-water-use\data-raw\sourcefiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://clemson-my.sharepoint.com/personal/lsangha_clemson_edu/Documents/Github_packages/EIAdata/data-raw/macroeconomic/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_1F18A296EA97D3653CA8DD79921F0DD61D962188" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F79D0B7-31C5-4FF0-8E49-890CDAA2EF6E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="57480" yWindow="13590" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="formatted" sheetId="2" r:id="rId1"/>
@@ -325,7 +326,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
@@ -895,42 +896,42 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="45">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="47">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="46">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="13" xfId="46" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="46" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="44">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -959,14 +960,14 @@
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Body: normal cell" xfId="42"/>
+    <cellStyle name="Body: normal cell" xfId="42" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="43"/>
-    <cellStyle name="Footnotes: top row" xfId="44"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="43" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="44" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Header: bottom row" xfId="45"/>
+    <cellStyle name="Header: bottom row" xfId="45" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
@@ -977,8 +978,8 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Parent row" xfId="46"/>
-    <cellStyle name="Table title" xfId="47"/>
+    <cellStyle name="Parent row" xfId="46" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Table title" xfId="47" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
@@ -1258,23 +1259,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>1.3807E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>4.875E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -1702,8 +1703,8 @@
         <v>1.6080000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1809,8 +1810,8 @@
         <v>1.6718E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1916,8 +1917,8 @@
         <v>-7.7399999999999995E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2023,8 +2024,8 @@
         <v>-2.3449999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -2130,8 +2131,8 @@
         <v>6.973E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -2237,8 +2238,8 @@
         <v>1.0163999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2344,8 +2345,8 @@
         <v>3.8860000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2451,8 +2452,8 @@
         <v>-4.3179999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -2558,8 +2559,8 @@
         <v>1.8942000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2665,8 +2666,8 @@
         <v>1.6202999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2772,8 +2773,8 @@
         <v>9.6939999999999995E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -2879,8 +2880,8 @@
         <v>1.8224000000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2986,8 +2987,8 @@
         <v>1.7852E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -3093,8 +3094,8 @@
         <v>7.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -3200,8 +3201,8 @@
         <v>2.1777999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -3307,8 +3308,8 @@
         <v>-4.9899999999999999E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -3414,8 +3415,8 @@
         <v>-3.5799999999999997E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -3521,8 +3522,8 @@
         <v>-3.0980000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -3628,8 +3629,8 @@
         <v>1.5821000000000002E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -3735,8 +3736,8 @@
         <v>1.2244E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -3842,8 +3843,8 @@
         <v>1.2819000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -3949,8 +3950,8 @@
         <v>1.3783E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -4056,8 +4057,8 @@
         <v>1.1764999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="7" t="s">
@@ -4163,8 +4164,8 @@
         <v>2.6670000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B28" s="7" t="s">
@@ -4270,8 +4271,8 @@
         <v>-3.9249999999999997E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B29" s="7" t="s">
@@ -4377,8 +4378,8 @@
         <v>8.5339999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -4484,8 +4485,8 @@
         <v>8.2749999999999994E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -4591,8 +4592,8 @@
         <v>8.4030000000000007E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -4698,8 +4699,8 @@
         <v>1.5107000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="7" t="s">
@@ -4805,8 +4806,8 @@
         <v>2.3955000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B34" s="7" t="s">
@@ -4912,8 +4913,8 @@
         <v>2.0729000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B35" s="7" t="s">
@@ -5019,8 +5020,8 @@
         <v>1.8501E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="7" t="s">
@@ -5133,23 +5134,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5250,8 +5251,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="13" t="s">
         <v>88</v>
       </c>
@@ -5263,7 +5264,7 @@
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="13" t="s">
         <v>90</v>
       </c>
@@ -5277,7 +5278,7 @@
       </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="13" t="s">
         <v>93</v>
       </c>
@@ -5289,7 +5290,7 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
     </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="13" t="s">
         <v>95</v>
       </c>
@@ -5301,7 +5302,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -5309,12 +5310,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
@@ -5522,8 +5523,8 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
@@ -5630,7 +5631,7 @@
         <v>1.8609000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -5737,17 +5738,17 @@
         <v>5.4180000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>1.3807E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
@@ -5961,7 +5962,7 @@
         <v>4.875E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>17</v>
       </c>
@@ -6068,12 +6069,12 @@
         <v>1.6080000000000001E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>20</v>
       </c>
@@ -6180,7 +6181,7 @@
         <v>1.6718E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>-7.7399999999999995E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>-2.3449999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>26</v>
       </c>
@@ -6501,7 +6502,7 @@
         <v>6.973E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>1.0163999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>3.8860000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
@@ -6822,7 +6823,7 @@
         <v>-4.3179999999999998E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>34</v>
       </c>
@@ -6929,7 +6930,7 @@
         <v>1.8942000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -7036,7 +7037,7 @@
         <v>1.6202999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>38</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>9.6939999999999995E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>40</v>
       </c>
@@ -7250,7 +7251,7 @@
         <v>1.8224000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
@@ -7357,7 +7358,7 @@
         <v>1.7852E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -7464,7 +7465,7 @@
         <v>7.7499999999999999E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>46</v>
       </c>
@@ -7571,7 +7572,7 @@
         <v>2.1777999999999999E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>48</v>
       </c>
@@ -7678,7 +7679,7 @@
         <v>-4.9899999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -7785,7 +7786,7 @@
         <v>-3.5799999999999997E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>-3.0980000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>54</v>
       </c>
@@ -7999,7 +8000,7 @@
         <v>1.5821000000000002E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>1.2244E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>58</v>
       </c>
@@ -8213,7 +8214,7 @@
         <v>1.2819000000000001E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>60</v>
       </c>
@@ -8320,7 +8321,7 @@
         <v>1.3783E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>62</v>
       </c>
@@ -8427,7 +8428,7 @@
         <v>1.1764999999999999E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>64</v>
       </c>
@@ -8534,7 +8535,7 @@
         <v>2.6670000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>66</v>
       </c>
@@ -8641,7 +8642,7 @@
         <v>-3.9249999999999997E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>68</v>
       </c>
@@ -8748,7 +8749,7 @@
         <v>8.5339999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>70</v>
       </c>
@@ -8855,7 +8856,7 @@
         <v>8.2749999999999994E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>72</v>
       </c>
@@ -8962,7 +8963,7 @@
         <v>8.4030000000000007E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>74</v>
       </c>
@@ -9069,7 +9070,7 @@
         <v>1.5107000000000001E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>76</v>
       </c>
@@ -9176,7 +9177,7 @@
         <v>2.3955000000000001E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>78</v>
       </c>
@@ -9283,7 +9284,7 @@
         <v>2.0729000000000001E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>80</v>
       </c>
@@ -9390,7 +9391,7 @@
         <v>1.8501E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>82</v>
       </c>
@@ -9497,7 +9498,7 @@
         <v>2.8826999999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>84</v>
       </c>
@@ -9604,51 +9605,51 @@
         <v>1.3722E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="14" t="s">
+    <row r="61" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="14"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
-      <c r="T62" s="14"/>
-      <c r="U62" s="14"/>
-      <c r="V62" s="14"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="14"/>
-      <c r="Y62" s="14"/>
-      <c r="Z62" s="14"/>
-      <c r="AA62" s="14"/>
-      <c r="AB62" s="14"/>
-      <c r="AC62" s="14"/>
-      <c r="AD62" s="14"/>
-      <c r="AE62" s="14"/>
-      <c r="AF62" s="14"/>
-      <c r="AG62" s="14"/>
-      <c r="AH62" s="14"/>
-      <c r="AI62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="15"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="15"/>
+      <c r="R62" s="15"/>
+      <c r="S62" s="15"/>
+      <c r="T62" s="15"/>
+      <c r="U62" s="15"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+      <c r="Y62" s="15"/>
+      <c r="Z62" s="15"/>
+      <c r="AA62" s="15"/>
+      <c r="AB62" s="15"/>
+      <c r="AC62" s="15"/>
+      <c r="AD62" s="15"/>
+      <c r="AE62" s="15"/>
+      <c r="AF62" s="15"/>
+      <c r="AG62" s="15"/>
+      <c r="AH62" s="15"/>
+      <c r="AI62" s="15"/>
     </row>
-    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
         <v>87</v>
       </c>
